--- a/wwwroot/Спецификация.xlsx
+++ b/wwwroot/Спецификация.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Прайс" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
-  <si>
-    <t>Другое</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Заправка картриджа</t>
   </si>
@@ -58,6 +55,30 @@
   </si>
   <si>
     <t>Наименование</t>
+  </si>
+  <si>
+    <t>Компьютер</t>
+  </si>
+  <si>
+    <t>Ремонтно-техническое обслуживание (Замена деталей) принтеров формата А4</t>
+  </si>
+  <si>
+    <t>Ремонтно-техническое обслуживание (Замена деталей) МФУ формата А4</t>
+  </si>
+  <si>
+    <t>Ремонтно-техническое обслуживание (Замена деталей) остальных принтеров</t>
+  </si>
+  <si>
+    <t>Ремонт компьютера (Установка ОС + базовый комплект программ)</t>
+  </si>
+  <si>
+    <t>Ремонт компьютера (Настройка сети 1 ПК)</t>
+  </si>
+  <si>
+    <t>Ремонт компьютера (Установка антивируса eset Nod 32 Antivirus lic (3dt) 1 Год)</t>
+  </si>
+  <si>
+    <t>Ремонт компьютера (Установка и настройка программ)</t>
   </si>
 </sst>
 </file>
@@ -91,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -114,22 +135,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -415,7 +578,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,13 +586,14 @@
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="0.42578125" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
+      <c r="A1" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B1" s="1">
         <v>1005</v>
@@ -437,16 +601,16 @@
       <c r="C1" s="1">
         <v>1010</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="4">
         <v>1200</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
+      <c r="E1" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>36000</v>
@@ -454,16 +618,14 @@
       <c r="C2" s="1">
         <v>36000</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>50000</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>45000</v>
@@ -471,16 +633,14 @@
       <c r="C3" s="1">
         <v>45000</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>65000</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>25000</v>
@@ -488,16 +648,14 @@
       <c r="C4" s="1">
         <v>25000</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>25000</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>20000</v>
@@ -505,16 +663,14 @@
       <c r="C5" s="1">
         <v>20000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>20000</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
+      <c r="A6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>15000</v>
@@ -522,16 +678,14 @@
       <c r="C6" s="1">
         <v>15000</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>15000</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>10000</v>
@@ -539,16 +693,14 @@
       <c r="C7" s="1">
         <v>10000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>10000</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>25000</v>
@@ -556,37 +708,115 @@
       <c r="C8" s="1">
         <v>25000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>55000</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
         <v>170000</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="10">
         <v>170000</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="11">
         <v>250000</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="13">
+        <v>100000</v>
+      </c>
+      <c r="C10" s="13">
+        <v>100000</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="13">
+        <v>150000</v>
+      </c>
+      <c r="C11" s="13">
+        <v>150000</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
